--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B316EE65-78E8-4B0E-A815-DC99D2527593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B4146-4ED6-4B71-A675-186F62FEAC2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="33">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>T46515AB/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>5611500802A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>T46496AA/CYLINDER HEAD (R) ,P558 V6</t>
+  </si>
+  <si>
+    <t>5611507702A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>T963113A/CYLINDER BLOCK (R) RAW MAT`L</t>
   </si>
 </sst>
 </file>
@@ -172,13 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -498,10 +509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +521,7 @@
     <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -521,1234 +532,1764 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44228</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44228</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44228</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44228</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44228</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44228</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44228</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44229</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>240</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44229</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
-        <v>160</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>160</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44229</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <v>160</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>160</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44229</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>112</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44229</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>320</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44229</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>480</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44229</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>240</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44229</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>240</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44229</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>192</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44229</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>200</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44230</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4">
-        <v>160</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44230</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4">
-        <v>160</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44230</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
-        <v>160</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44230</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4">
-        <v>160</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44230</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>240</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44230</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>480</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44230</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>240</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44230</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>180</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44230</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>408</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44230</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>400</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44231</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4">
-        <v>160</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44231</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="4">
-        <v>160</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44231</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>240</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44231</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>480</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44231</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>240</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44231</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>180</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44231</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>408</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44231</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>400</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44231</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>210</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44231</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>216</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44232</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="4">
-        <v>160</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44232</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="4">
-        <v>160</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44232</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>400</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44232</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>408</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44232</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>240</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44232</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>180</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44232</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>300</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44232</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>208</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44232</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>300</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44232</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>312</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44232</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>200</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44233</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>320</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44233</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="4">
-        <v>160</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44233</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="4">
-        <v>160</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44233</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>800</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44233</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>804</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44233</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>240</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44233</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>180</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44233</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>408</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44233</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>300</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44233</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>300</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44233</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>312</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44233</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>200</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44235</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="4">
-        <v>160</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C62" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44235</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="4">
-        <v>160</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C63" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44235</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>420</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44235</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>800</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44235</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>480</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44235</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>360</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44235</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>180</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44235</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>100</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44235</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>408</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44235</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>400</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44235</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>400</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44235</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>300</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44235</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>312</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44235</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>200</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44236</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>240</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44236</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>240</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44236</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>280</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44236</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>640</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44236</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>204</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44236</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>480</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44236</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>480</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44236</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>200</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44236</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>505</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44236</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>720</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44236</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>1520</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44237</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="4">
-        <v>160</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C87" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44237</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="4">
-        <v>160</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C88" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44237</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>800</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44237</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>240</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44237</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>400</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44237</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>300</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44237</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>400</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44237</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>512</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44237</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>512</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="6">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="6">
+        <v>512</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B4146-4ED6-4B71-A675-186F62FEAC2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FF7094-2826-4A1A-B239-DDD0C5535425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="37">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>T963113A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>WK06</t>
+  </si>
+  <si>
+    <t>WK07</t>
+  </si>
+  <si>
+    <t>WK08</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +165,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,1789 +527,2380 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44228</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44228</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44228</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44228</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44228</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44228</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44228</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44229</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>240</v>
       </c>
-      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44229</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
-        <v>160</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3">
+        <v>160</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44229</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
-        <v>160</v>
-      </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="3">
+        <v>160</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44229</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>112</v>
       </c>
-      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44229</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>320</v>
       </c>
-      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44229</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>480</v>
       </c>
-      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44229</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>240</v>
       </c>
-      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44229</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44229</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44229</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44230</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44230</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44230</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44230</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44230</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44230</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44230</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44230</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44230</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44230</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44231</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44231</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44231</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44231</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44231</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44231</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44231</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44231</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44231</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44231</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44232</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44232</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D40" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44232</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44232</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44232</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44232</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44232</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44232</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44232</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44232</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44232</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44233</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44233</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D51" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44233</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D52" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44233</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44233</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>804</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44233</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44233</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44233</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44233</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44233</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44233</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44233</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44235</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D62" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44235</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D63" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44235</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44235</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44235</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44235</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44235</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44235</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="3">
+      <c r="D69" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44235</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44235</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44235</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="3">
+      <c r="D72" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44235</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44235</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="3">
+      <c r="D74" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44235</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44236</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44236</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44236</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44236</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="3">
         <v>640</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44236</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44236</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="3">
+      <c r="D81" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44236</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44236</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="3">
+      <c r="D83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44236</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>505</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44236</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="4">
+      <c r="D85" s="4">
         <v>720</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44236</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D86" s="4">
         <v>1520</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44237</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D87" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44237</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D88" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44237</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="3">
+      <c r="D89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44237</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="3">
+      <c r="D90" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44237</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="3">
+      <c r="D91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44237</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="3">
+      <c r="D92" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44237</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="3">
+      <c r="D93" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44237</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="3">
+      <c r="D94" s="3">
         <v>512</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44237</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="3">
+      <c r="D95" s="3">
         <v>512</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44238</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D96" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44238</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="6">
+      <c r="D97" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44238</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="6">
+      <c r="D98" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44238</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="6">
+      <c r="D99" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44238</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="6">
+      <c r="D100" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44238</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D101" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44238</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D102" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44238</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="6">
+      <c r="D103" s="6">
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44238</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="6">
+      <c r="D104" s="6">
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44238</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="6">
+      <c r="D105" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44238</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="6">
+      <c r="D106" s="6">
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44238</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="6">
+      <c r="D107" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44238</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="6">
+      <c r="D108" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44238</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="6">
+      <c r="D109" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44238</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="6">
+      <c r="D110" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44238</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="6">
+      <c r="D111" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44238</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="4">
+      <c r="D112" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44239</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D113" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44239</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D114" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44239</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="6">
+      <c r="D115" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44239</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="6">
+      <c r="D116" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44239</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="6">
+      <c r="D117" s="6">
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44239</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="6">
+      <c r="D118" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44239</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C119" s="6">
+      <c r="D119" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44239</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="6">
+      <c r="D120" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44239</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="6">
+      <c r="D121" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44239</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="6">
+      <c r="D122" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44240</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="4">
+      <c r="D123" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44240</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D124" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44240</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D125" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44240</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="6">
+      <c r="D126" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44240</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="6">
+      <c r="D127" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44240</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C128" s="6">
+      <c r="D128" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44240</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="6">
+      <c r="D129" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44240</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="6">
+      <c r="D130" s="6">
         <v>480</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44240</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C131" s="6">
+      <c r="D131" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44241</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="6">
+      <c r="D132" s="6">
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44241</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="6">
+      <c r="D133" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44242</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D134" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44242</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D135" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44242</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C136" s="6">
+      <c r="D136" s="6">
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44242</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="6">
+      <c r="D137" s="6">
         <v>280</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44242</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="6">
+      <c r="D138" s="6">
         <v>560</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44242</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="6">
+      <c r="D139" s="6">
         <v>360</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44242</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C140" s="6">
+      <c r="D140" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>44242</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="6">
+      <c r="D141" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>44242</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C142" s="6">
+      <c r="D142" s="6">
         <v>1024</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44242</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C143" s="6">
+      <c r="D143" s="6">
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>44242</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C144" s="6">
+      <c r="D144" s="6">
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>44243</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C145" s="6">
+      <c r="D145" s="6">
         <v>280</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>44243</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="6">
+      <c r="D146" s="6">
         <v>360</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>44243</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="6">
+      <c r="D147" s="6">
         <v>420</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>44243</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="6">
+      <c r="D148" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>44243</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C149" s="6">
+      <c r="D149" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>44243</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C150" s="6">
+      <c r="D150" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>44243</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C151" s="6">
+      <c r="D151" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>44244</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C152" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D152" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>44244</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C153" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D153" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44244</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C154" s="6">
+      <c r="D154" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44244</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C155" s="6">
+      <c r="D155" s="6">
         <v>360</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44244</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="6">
+      <c r="D156" s="6">
         <v>360</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44244</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="6">
+      <c r="D157" s="6">
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44244</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C158" s="6">
+      <c r="D158" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44244</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C159" s="6">
+      <c r="D159" s="6">
         <v>512</v>
       </c>
     </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FF7094-2826-4A1A-B239-DDD0C5535425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190DAB51-6297-4677-83B9-FFC43A192358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="42">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>WK08</t>
+  </si>
+  <si>
+    <t>5611506803A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>Z0009112A/CYLINDER BLOCK (F) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Z0009115A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>5611514600A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>WK09</t>
   </si>
 </sst>
 </file>
@@ -202,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +225,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -527,10 +544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2801,7 +2818,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>44245</v>
       </c>
@@ -2815,7 +2832,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>44245</v>
       </c>
@@ -2829,7 +2846,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>44245</v>
       </c>
@@ -2843,7 +2860,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44245</v>
       </c>
@@ -2857,7 +2874,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>44245</v>
       </c>
@@ -2871,7 +2888,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>44245</v>
       </c>
@@ -2885,7 +2902,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>44245</v>
       </c>
@@ -2898,6 +2915,566 @@
       <c r="D167">
         <v>512</v>
       </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="8">
+        <v>160</v>
+      </c>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="8">
+        <v>160</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="8">
+        <v>160</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="8">
+        <v>160</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D172" s="8">
+        <v>224</v>
+      </c>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="8">
+        <v>504</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="8">
+        <v>504</v>
+      </c>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="8">
+        <v>240</v>
+      </c>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="8">
+        <v>240</v>
+      </c>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" s="8">
+        <v>400</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="8">
+        <v>512</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" s="8">
+        <v>512</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="8">
+        <v>200</v>
+      </c>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181" s="8">
+        <v>210</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D182" s="8">
+        <v>168</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="8">
+        <v>392</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="8">
+        <v>504</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="8">
+        <v>504</v>
+      </c>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="8">
+        <v>240</v>
+      </c>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+    </row>
+    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="8">
+        <v>400</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D188" s="8">
+        <v>400</v>
+      </c>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" s="8">
+        <v>300</v>
+      </c>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="8">
+        <v>160</v>
+      </c>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191" s="8">
+        <v>160</v>
+      </c>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" s="8">
+        <v>140</v>
+      </c>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="8">
+        <v>600</v>
+      </c>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="8">
+        <v>600</v>
+      </c>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" s="8">
+        <v>240</v>
+      </c>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="8">
+        <v>400</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" s="8">
+        <v>400</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="8">
+        <v>512</v>
+      </c>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" s="8">
+        <v>512</v>
+      </c>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D200" s="8">
+        <v>300</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" s="8">
+        <v>300</v>
+      </c>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" s="8">
+        <v>312</v>
+      </c>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190DAB51-6297-4677-83B9-FFC43A192358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196A1F3-D970-48E3-AC3B-3313C7C80CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="43">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>WK09</t>
+  </si>
+  <si>
+    <t>T46496AA/CYLINDER HEAD (R) P558 V8</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,7 +3399,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>44249</v>
       </c>
@@ -3404,13 +3407,11 @@
         <v>41</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D198" s="8">
-        <v>512</v>
-      </c>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="199" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
@@ -3420,7 +3421,7 @@
         <v>41</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" s="8">
         <v>512</v>
@@ -3436,10 +3437,10 @@
         <v>41</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D200" s="8">
-        <v>300</v>
+        <v>512</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -3452,7 +3453,7 @@
         <v>41</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D201" s="8">
         <v>300</v>
@@ -3468,13 +3469,29 @@
         <v>41</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D202" s="8">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
+    </row>
+    <row r="203" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="8">
+        <v>312</v>
+      </c>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196A1F3-D970-48E3-AC3B-3313C7C80CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D43FA-9994-42C8-819D-03DDFEB22947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="44">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>T46496AA/CYLINDER HEAD (R) P558 V8</t>
+  </si>
+  <si>
+    <t>Z0015679A/CYLINDER BLOCK (R) RAW MAT`L</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204:A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3493,6 +3496,244 @@
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
     </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D43FA-9994-42C8-819D-03DDFEB22947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C3848A-ED97-4B0F-ABC3-E24DE738F468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="44">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -550,10 +550,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204:A220"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="J232" sqref="J232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3734,6 +3734,244 @@
         <v>312</v>
       </c>
     </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D225">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C3848A-ED97-4B0F-ABC3-E24DE738F468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D8B438-8F7C-45FD-88C3-92F01A4E4AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="44">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +231,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -550,10 +552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="J232" sqref="J232"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3790,7 +3792,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44251</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44251</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44251</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44251</v>
       </c>
@@ -3846,7 +3848,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44251</v>
       </c>
@@ -3860,7 +3862,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44251</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44251</v>
       </c>
@@ -3888,7 +3890,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44251</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44251</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44251</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44251</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44251</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44251</v>
       </c>
@@ -3971,6 +3973,262 @@
       <c r="D237">
         <v>200</v>
       </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="10">
+        <v>240</v>
+      </c>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="10">
+        <v>240</v>
+      </c>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" s="10">
+        <v>140</v>
+      </c>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+    </row>
+    <row r="241" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="10">
+        <v>400</v>
+      </c>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+    </row>
+    <row r="242" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="10">
+        <v>396</v>
+      </c>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+    </row>
+    <row r="243" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" s="10">
+        <v>240</v>
+      </c>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" s="10">
+        <v>400</v>
+      </c>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+    </row>
+    <row r="245" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" s="10">
+        <v>160</v>
+      </c>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+    </row>
+    <row r="246" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246" s="10">
+        <v>800</v>
+      </c>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9"/>
+    </row>
+    <row r="247" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="10">
+        <v>432</v>
+      </c>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+    </row>
+    <row r="248" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D248" s="10">
+        <v>200</v>
+      </c>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+    </row>
+    <row r="249" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D249" s="10">
+        <v>210</v>
+      </c>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+    </row>
+    <row r="250" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" s="10">
+        <v>208</v>
+      </c>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9"/>
+    </row>
+    <row r="251" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="10">
+        <v>600</v>
+      </c>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+    </row>
+    <row r="252" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" s="10">
+        <v>312</v>
+      </c>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+    </row>
+    <row r="253" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253" s="10">
+        <v>400</v>
+      </c>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D8B438-8F7C-45FD-88C3-92F01A4E4AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1353F2-A60C-4A13-A358-D18F53336E19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="44">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -552,10 +552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254:A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4230,6 +4230,198 @@
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
     </row>
+    <row r="254" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" s="10">
+        <v>240</v>
+      </c>
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
+    </row>
+    <row r="255" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="10">
+        <v>464</v>
+      </c>
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
+    </row>
+    <row r="256" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" s="10">
+        <v>160</v>
+      </c>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+    </row>
+    <row r="257" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="10">
+        <v>160</v>
+      </c>
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
+    </row>
+    <row r="258" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D258" s="10">
+        <v>280</v>
+      </c>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
+    </row>
+    <row r="259" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" s="10">
+        <v>196</v>
+      </c>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+    </row>
+    <row r="260" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="10">
+        <v>400</v>
+      </c>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+    </row>
+    <row r="261" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261" s="10">
+        <v>396</v>
+      </c>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
+    </row>
+    <row r="262" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" s="10">
+        <v>240</v>
+      </c>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
+    </row>
+    <row r="263" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" s="10">
+        <v>200</v>
+      </c>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
+    </row>
+    <row r="264" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="10">
+        <v>360</v>
+      </c>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+    </row>
+    <row r="265" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" s="10">
+        <v>240</v>
+      </c>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI_Feb_21.xlsx
+++ b/EDI_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1353F2-A60C-4A13-A358-D18F53336E19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E7EEA-C10D-4E85-9B8D-E0D36FB9801A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="44">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -552,10 +552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254:A265"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="G268" sqref="G268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4422,6 +4422,118 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
     </row>
+    <row r="266" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" s="10">
+        <v>400</v>
+      </c>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+    </row>
+    <row r="267" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" s="10">
+        <v>400</v>
+      </c>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+    </row>
+    <row r="268" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D268" s="10">
+        <v>720</v>
+      </c>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
+    </row>
+    <row r="269" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" s="10">
+        <v>192</v>
+      </c>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+    </row>
+    <row r="270" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" s="10">
+        <v>240</v>
+      </c>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
+    </row>
+    <row r="271" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271" s="10">
+        <v>240</v>
+      </c>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+    </row>
+    <row r="272" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D272" s="10">
+        <v>500</v>
+      </c>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
